--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2198998.49288709</v>
+        <v>2194740.230660615</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9810133.631123601</v>
+        <v>9810133.631123599</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9288914861689</v>
+        <v>175.0125467104122</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716172</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.958190538687</v>
+        <v>118.9581905386867</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241024569</v>
+        <v>0.7530123241020306</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011784</v>
+        <v>154.9260532011782</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723319</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1557452255192</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>318.6156088761051</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261762</v>
+        <v>99.96876284261759</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323668</v>
+        <v>45.66663787323655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199427</v>
+        <v>21.29900499199404</v>
       </c>
       <c r="S3" t="n">
-        <v>148.0912566156104</v>
+        <v>148.0912566156103</v>
       </c>
       <c r="T3" t="n">
         <v>195.0452553973763</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>98.01387568184128</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063312</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371268</v>
+        <v>129.4149600371267</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>246.8640196636381</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>207.6756195238018</v>
       </c>
       <c r="G5" t="n">
-        <v>12.92889148616887</v>
+        <v>412.9288914861689</v>
       </c>
       <c r="H5" t="n">
-        <v>315.1636514716172</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I5" t="n">
-        <v>118.958190538687</v>
+        <v>118.9581905386867</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241024569</v>
+        <v>0.7530123241020306</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011784</v>
+        <v>154.9260532011782</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723319</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1557452255192</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>28.3030195582859</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261762</v>
+        <v>99.96876284261759</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323668</v>
+        <v>45.66663787323655</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199427</v>
+        <v>21.29900499199404</v>
       </c>
       <c r="S6" t="n">
-        <v>148.0912566156104</v>
+        <v>148.0912566156103</v>
       </c>
       <c r="T6" t="n">
         <v>195.0452553973763</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9261537524327</v>
+        <v>9.093386706493149</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.4149600371267</v>
       </c>
       <c r="S7" t="n">
         <v>205.4595917937733</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>91.93842425907434</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>279.7061367223047</v>
       </c>
       <c r="X8" t="n">
-        <v>250.0619523069925</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>162.1664313463402</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>79.13107494872595</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>41.01175877060098</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>67.96386702300485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>137.0965178272088</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>40.37234576591548</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>105.6356839950556</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>112.5284434523311</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>254.3711517780285</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.04391179877741</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>173.574028979552</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>154.8277789621973</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>246.4755938422903</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>254.589680960615</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>62.50448303558152</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>210.6850032871185</v>
+        <v>145.8985436303878</v>
       </c>
     </row>
     <row r="44">
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>93.02868377804606</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1688.273310836092</v>
+        <v>1873.660599164952</v>
       </c>
       <c r="C2" t="n">
-        <v>1319.310793895681</v>
+        <v>1504.69808222454</v>
       </c>
       <c r="D2" t="n">
-        <v>1319.310793895681</v>
+        <v>1146.43238361779</v>
       </c>
       <c r="E2" t="n">
-        <v>1319.310793895681</v>
+        <v>760.6441310195453</v>
       </c>
       <c r="F2" t="n">
-        <v>908.3248891060732</v>
+        <v>349.6582262299377</v>
       </c>
       <c r="G2" t="n">
-        <v>491.2249987160036</v>
+        <v>172.8778760174001</v>
       </c>
       <c r="H2" t="n">
-        <v>172.8778760174004</v>
+        <v>172.8778760174001</v>
       </c>
       <c r="I2" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437002398</v>
+        <v>72.94508437002453</v>
       </c>
       <c r="K2" t="n">
-        <v>474.9025859199828</v>
+        <v>153.9986274745311</v>
       </c>
       <c r="L2" t="n">
-        <v>693.1884131896865</v>
+        <v>704.9390792031114</v>
       </c>
       <c r="M2" t="n">
-        <v>1322.822366070962</v>
+        <v>1334.573032084389</v>
       </c>
       <c r="N2" t="n">
-        <v>1948.012457026075</v>
+        <v>1959.763123039503</v>
       </c>
       <c r="O2" t="n">
-        <v>2493.17409378057</v>
+        <v>2493.174093780568</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.201833992999</v>
+        <v>2602.201833992997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R2" t="n">
         <v>2635.143761215016</v>
@@ -4363,19 +4363,19 @@
         <v>2263.799931140763</v>
       </c>
       <c r="U2" t="n">
-        <v>2010.107259195795</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="V2" t="n">
-        <v>2010.107259195795</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="W2" t="n">
-        <v>1688.273310836092</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="X2" t="n">
-        <v>1688.273310836092</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="Y2" t="n">
-        <v>1688.273310836092</v>
+        <v>1873.660599164952</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>337.2724292911492</v>
       </c>
       <c r="G3" t="n">
-        <v>199.824552964034</v>
+        <v>199.8245529640338</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815764</v>
+        <v>98.84600463815741</v>
       </c>
       <c r="I3" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J3" t="n">
-        <v>52.71808759448422</v>
+        <v>170.7774263352079</v>
       </c>
       <c r="K3" t="n">
-        <v>119.3005601895475</v>
+        <v>499.1804835727247</v>
       </c>
       <c r="L3" t="n">
-        <v>351.9746989818012</v>
+        <v>1002.163317769836</v>
       </c>
       <c r="M3" t="n">
-        <v>990.9111639625185</v>
+        <v>1238.315708304459</v>
       </c>
       <c r="N3" t="n">
-        <v>1643.297497944261</v>
+        <v>1435.320983085768</v>
       </c>
       <c r="O3" t="n">
-        <v>2191.222737149934</v>
+        <v>1983.246222291442</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.977979877467</v>
+        <v>2406.001465018976</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R3" t="n">
         <v>2614.390233267651</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218.8897769047896</v>
+        <v>468.2473725246289</v>
       </c>
       <c r="C4" t="n">
-        <v>218.8897769047896</v>
+        <v>468.2473725246289</v>
       </c>
       <c r="D4" t="n">
-        <v>218.8897769047896</v>
+        <v>369.2434576944862</v>
       </c>
       <c r="E4" t="n">
-        <v>70.97668332239647</v>
+        <v>221.330364112093</v>
       </c>
       <c r="F4" t="n">
-        <v>70.97668332239647</v>
+        <v>221.330364112093</v>
       </c>
       <c r="G4" t="n">
-        <v>70.97668332239647</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H4" t="n">
-        <v>70.97668332239647</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I4" t="n">
-        <v>70.97668332239647</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J4" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919731</v>
+        <v>153.1475318919734</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482319</v>
+        <v>337.1890785482327</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6242080628142</v>
+        <v>541.6242080628155</v>
       </c>
       <c r="N4" t="n">
-        <v>746.6329435543747</v>
+        <v>746.6329435543764</v>
       </c>
       <c r="O4" t="n">
-        <v>919.9753968917072</v>
+        <v>919.9753968917094</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327083</v>
+        <v>1044.779129327086</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.751684421857</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="R4" t="n">
-        <v>917.0295025661735</v>
+        <v>917.0295025661763</v>
       </c>
       <c r="S4" t="n">
-        <v>917.0295025661735</v>
+        <v>917.0295025661763</v>
       </c>
       <c r="T4" t="n">
-        <v>917.0295025661735</v>
+        <v>917.0295025661763</v>
       </c>
       <c r="U4" t="n">
-        <v>917.0295025661735</v>
+        <v>917.0295025661763</v>
       </c>
       <c r="V4" t="n">
-        <v>917.0295025661735</v>
+        <v>917.0295025661763</v>
       </c>
       <c r="W4" t="n">
-        <v>667.671906946337</v>
+        <v>917.0295025661763</v>
       </c>
       <c r="X4" t="n">
-        <v>439.6823560483197</v>
+        <v>689.039951668159</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.8897769047896</v>
+        <v>468.2473725246289</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1255.283937019867</v>
+        <v>1487.06075910083</v>
       </c>
       <c r="C5" t="n">
-        <v>1255.283937019867</v>
+        <v>1118.098242160418</v>
       </c>
       <c r="D5" t="n">
-        <v>897.0182384131168</v>
+        <v>1118.098242160418</v>
       </c>
       <c r="E5" t="n">
-        <v>511.2299858148726</v>
+        <v>1118.098242160418</v>
       </c>
       <c r="F5" t="n">
-        <v>504.2844850656691</v>
+        <v>908.324889106073</v>
       </c>
       <c r="G5" t="n">
-        <v>491.2249987160036</v>
+        <v>491.2249987160033</v>
       </c>
       <c r="H5" t="n">
-        <v>172.8778760174004</v>
+        <v>172.8778760174001</v>
       </c>
       <c r="I5" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J5" t="n">
-        <v>72.94508437002398</v>
+        <v>72.94508437002453</v>
       </c>
       <c r="K5" t="n">
-        <v>474.9025859199828</v>
+        <v>153.9986274745311</v>
       </c>
       <c r="L5" t="n">
-        <v>612.3584352436161</v>
+        <v>704.9390792031114</v>
       </c>
       <c r="M5" t="n">
-        <v>1241.992388124892</v>
+        <v>1334.573032084389</v>
       </c>
       <c r="N5" t="n">
-        <v>1796.23207463312</v>
+        <v>1959.763123039503</v>
       </c>
       <c r="O5" t="n">
-        <v>1964.401531937497</v>
+        <v>2493.174093780568</v>
       </c>
       <c r="P5" t="n">
-        <v>2392.009993239693</v>
+        <v>2602.201833992997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R5" t="n">
         <v>2635.143761215016</v>
@@ -4600,19 +4600,19 @@
         <v>2263.799931140763</v>
       </c>
       <c r="U5" t="n">
-        <v>2010.107259195795</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="V5" t="n">
-        <v>1981.518350551061</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="W5" t="n">
-        <v>1628.749695280947</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="X5" t="n">
-        <v>1255.283937019867</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="Y5" t="n">
-        <v>1255.283937019867</v>
+        <v>1873.660599164952</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120978</v>
+        <v>966.4318812120981</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309708</v>
+        <v>791.9788519309711</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697196</v>
+        <v>643.0444422697199</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642641</v>
+        <v>483.8069872642644</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911492</v>
+        <v>337.2724292911494</v>
       </c>
       <c r="G6" t="n">
-        <v>199.824552964034</v>
+        <v>199.8245529640338</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815764</v>
+        <v>98.8460046381575</v>
       </c>
       <c r="I6" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J6" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K6" t="n">
-        <v>381.1211448320004</v>
+        <v>381.1211448320009</v>
       </c>
       <c r="L6" t="n">
-        <v>884.1039790291106</v>
+        <v>884.103979029112</v>
       </c>
       <c r="M6" t="n">
-        <v>1446.292223162953</v>
+        <v>1238.315708304459</v>
       </c>
       <c r="N6" t="n">
-        <v>1643.297497944261</v>
+        <v>1435.320983085768</v>
       </c>
       <c r="O6" t="n">
-        <v>2191.222737149934</v>
+        <v>1983.246222291442</v>
       </c>
       <c r="P6" t="n">
-        <v>2613.977979877467</v>
+        <v>2406.001465018976</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R6" t="n">
         <v>2614.390233267651</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>519.3600971068219</v>
+        <v>527.846096530105</v>
       </c>
       <c r="C7" t="n">
-        <v>519.3600971068219</v>
+        <v>358.9099136021981</v>
       </c>
       <c r="D7" t="n">
-        <v>369.2434576944862</v>
+        <v>208.7932741898624</v>
       </c>
       <c r="E7" t="n">
-        <v>221.330364112093</v>
+        <v>208.7932741898624</v>
       </c>
       <c r="F7" t="n">
-        <v>221.330364112093</v>
+        <v>61.90332669195203</v>
       </c>
       <c r="G7" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H7" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I7" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J7" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919731</v>
+        <v>153.1475318919734</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482319</v>
+        <v>337.1890785482327</v>
       </c>
       <c r="M7" t="n">
-        <v>541.6242080628142</v>
+        <v>541.6242080628155</v>
       </c>
       <c r="N7" t="n">
-        <v>746.6329435543747</v>
+        <v>746.6329435543764</v>
       </c>
       <c r="O7" t="n">
-        <v>919.9753968917072</v>
+        <v>919.9753968917094</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327083</v>
+        <v>1044.779129327086</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.751684421857</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.751684421857</v>
+        <v>917.0295025661763</v>
       </c>
       <c r="S7" t="n">
-        <v>840.2167432160254</v>
+        <v>709.4945613603447</v>
       </c>
       <c r="T7" t="n">
-        <v>840.2167432160254</v>
+        <v>709.4945613603447</v>
       </c>
       <c r="U7" t="n">
-        <v>840.2167432160254</v>
+        <v>709.4945613603447</v>
       </c>
       <c r="V7" t="n">
-        <v>840.2167432160254</v>
+        <v>709.4945613603447</v>
       </c>
       <c r="W7" t="n">
-        <v>747.3496480048392</v>
+        <v>709.4945613603447</v>
       </c>
       <c r="X7" t="n">
-        <v>519.3600971068219</v>
+        <v>709.4945613603447</v>
       </c>
       <c r="Y7" t="n">
-        <v>519.3600971068219</v>
+        <v>709.4945613603447</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1272.93315454139</v>
+        <v>1589.767838252667</v>
       </c>
       <c r="C8" t="n">
-        <v>1272.93315454139</v>
+        <v>1220.805321312255</v>
       </c>
       <c r="D8" t="n">
-        <v>914.6674559346399</v>
+        <v>862.5396227055045</v>
       </c>
       <c r="E8" t="n">
-        <v>914.6674559346399</v>
+        <v>476.7513701072602</v>
       </c>
       <c r="F8" t="n">
-        <v>907.7219551854364</v>
+        <v>65.76546531765268</v>
       </c>
       <c r="G8" t="n">
-        <v>490.6341734218639</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H8" t="n">
-        <v>172.4110581943734</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I8" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J8" t="n">
-        <v>73.95233758786752</v>
+        <v>241.3579866082205</v>
       </c>
       <c r="K8" t="n">
-        <v>257.6236694647903</v>
+        <v>644.825099628266</v>
       </c>
       <c r="L8" t="n">
-        <v>810.4369277109895</v>
+        <v>1197.638357874465</v>
       </c>
       <c r="M8" t="n">
-        <v>997.1363405363971</v>
+        <v>1384.337770699873</v>
       </c>
       <c r="N8" t="n">
-        <v>1624.444008596244</v>
+        <v>1578.671983591855</v>
       </c>
       <c r="O8" t="n">
-        <v>2171.605213363321</v>
+        <v>2125.833188358933</v>
       </c>
       <c r="P8" t="n">
-        <v>2600.920259702616</v>
+        <v>2390.728418949309</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="S8" t="n">
-        <v>2479.689342221039</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="T8" t="n">
-        <v>2264.88948048875</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="U8" t="n">
-        <v>2264.88948048875</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="V8" t="n">
-        <v>2264.88948048875</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="W8" t="n">
-        <v>1912.120825218636</v>
+        <v>2353.372928489558</v>
       </c>
       <c r="X8" t="n">
-        <v>1659.532994605512</v>
+        <v>1979.907170228478</v>
       </c>
       <c r="Y8" t="n">
-        <v>1659.532994605512</v>
+        <v>1589.767838252667</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>966.9810067097869</v>
+        <v>966.1397720210899</v>
       </c>
       <c r="C9" t="n">
-        <v>792.5279774286599</v>
+        <v>791.6867427399629</v>
       </c>
       <c r="D9" t="n">
-        <v>643.5935677674087</v>
+        <v>642.7523330787117</v>
       </c>
       <c r="E9" t="n">
-        <v>484.3561127619532</v>
+        <v>483.5148780732562</v>
       </c>
       <c r="F9" t="n">
-        <v>337.8215547888382</v>
+        <v>336.9803201001412</v>
       </c>
       <c r="G9" t="n">
-        <v>200.3801571480601</v>
+        <v>199.5389224593631</v>
       </c>
       <c r="H9" t="n">
-        <v>99.4641792928647</v>
+        <v>98.62294460416771</v>
       </c>
       <c r="I9" t="n">
-        <v>53.55932228318119</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J9" t="n">
-        <v>53.55932228318119</v>
+        <v>171.3773394513799</v>
       </c>
       <c r="K9" t="n">
-        <v>382.9877265889911</v>
+        <v>500.8057437571897</v>
       </c>
       <c r="L9" t="n">
-        <v>520.217324604685</v>
+        <v>1005.167283623308</v>
       </c>
       <c r="M9" t="n">
-        <v>779.4008124484412</v>
+        <v>1232.289170088821</v>
       </c>
       <c r="N9" t="n">
-        <v>1431.787146430183</v>
+        <v>1430.945911741486</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.223155182906</v>
+        <v>1980.381920494209</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.190923663743</v>
+        <v>2404.349688975046</v>
       </c>
       <c r="Q9" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.063145035514</v>
       </c>
       <c r="R9" t="n">
-        <v>2614.792480126398</v>
+        <v>2613.9512454377</v>
       </c>
       <c r="S9" t="n">
-        <v>2465.325690989032</v>
+        <v>2464.484456300335</v>
       </c>
       <c r="T9" t="n">
-        <v>2268.33639514912</v>
+        <v>2267.495160460423</v>
       </c>
       <c r="U9" t="n">
-        <v>2040.197607660286</v>
+        <v>2039.356372971589</v>
       </c>
       <c r="V9" t="n">
-        <v>1805.045499428543</v>
+        <v>1804.204264739846</v>
       </c>
       <c r="W9" t="n">
-        <v>1550.808142700342</v>
+        <v>1549.966908011645</v>
       </c>
       <c r="X9" t="n">
-        <v>1342.956642494809</v>
+        <v>1342.115407806112</v>
       </c>
       <c r="Y9" t="n">
-        <v>1135.196343729855</v>
+        <v>1134.355109041158</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>535.2460481188509</v>
+        <v>280.5615599129641</v>
       </c>
       <c r="C10" t="n">
-        <v>371.4415720114366</v>
+        <v>280.5615599129641</v>
       </c>
       <c r="D10" t="n">
-        <v>221.3249325991008</v>
+        <v>280.5615599129641</v>
       </c>
       <c r="E10" t="n">
-        <v>221.3249325991008</v>
+        <v>132.648466330571</v>
       </c>
       <c r="F10" t="n">
-        <v>221.3249325991008</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K10" t="n">
         <v>153.766017190094</v>
@@ -4998,16 +4998,16 @@
         <v>1052.652769053829</v>
       </c>
       <c r="V10" t="n">
-        <v>1052.652769053829</v>
+        <v>797.9682808479421</v>
       </c>
       <c r="W10" t="n">
-        <v>763.2355990168683</v>
+        <v>508.5511108109815</v>
       </c>
       <c r="X10" t="n">
-        <v>535.2460481188509</v>
+        <v>280.5615599129641</v>
       </c>
       <c r="Y10" t="n">
-        <v>535.2460481188509</v>
+        <v>280.5615599129641</v>
       </c>
     </row>
     <row r="11">
@@ -5038,28 +5038,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5077,7 +5077,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>2978.613657539998</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
-        <v>3482.038612289356</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O12" t="n">
-        <v>4033.948342528643</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P12" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>847.6442739835331</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5244,7 +5244,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>847.6442739835331</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938886</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>986.1256051221279</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1616.556199993915</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1388.566649095898</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>1167.774069952368</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,13 +5597,13 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
         <v>2001.151557821488</v>
@@ -5652,16 +5652,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5731,28 +5731,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5767,25 +5767,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3192.420589669523</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3932.255922673039</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3642.838752636078</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3414.849201738061</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>3374.069054499763</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1870.758369404391</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.073881198505</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1326.656711161544</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1098.667160263527</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.6905094135296</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2333.297989183966</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.121104285317</v>
+        <v>1176.760808297275</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.131553387299</v>
+        <v>948.7712573992578</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.338974243769</v>
+        <v>727.9786782557277</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.6374272687975</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.2858920990373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>372.4964262156764</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2092.798483612594</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1547.449290305074</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X34" t="n">
-        <v>1319.459739407057</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y34" t="n">
-        <v>1098.667160263527</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="35">
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>948.5505208511906</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232838</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429803</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W37" t="n">
-        <v>1176.540071749208</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X37" t="n">
-        <v>948.5505208511906</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y37" t="n">
-        <v>948.5505208511906</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2383.827242130178</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2200.972407785082</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1981.370942808024</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1981.370942808024</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.686454602137</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1437.269284565176</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2387.388512467612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3175.341129796739</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C43" t="n">
-        <v>3006.404946868832</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D43" t="n">
-        <v>2856.288307456496</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
-        <v>2708.375213874103</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>2561.485266376193</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673039</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467152</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430192</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>3388.154264430192</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>3175.341129796739</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>962.6357307816187</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>793.6995478537118</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>643.582908441376</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7848,10 +7848,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.284195611858</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>81.64644236976807</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -7993,7 +7993,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>368.930821653219</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.839178026546833</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>97.80125903592739</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>58.85246329939895</v>
       </c>
       <c r="N3" t="n">
-        <v>459.9808678792267</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,25 +8218,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>365.6798492131102</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>368.930821653219</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.839178026546833</v>
+        <v>6.839178026546477</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>388.1816083491161</v>
+        <v>178.1043206132612</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>102.1294720225559</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8464,16 +8464,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>155.7180862028786</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>80.49106211025395</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N9" t="n">
-        <v>458.3127195243206</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>138.8202214113363</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.6207863290899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>30.15030327141901</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>178.2123075861793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>180.5487903941885</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>104.8770068749571</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>32.15184655856254</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>217.5407415533174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>112.948969357039</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>70.88187642683988</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>39.70888054695388</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>31.93331737597603</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25557,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>3.870763674540164</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25797,10 +25797,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>7.899650064976299</v>
+        <v>72.68610972170703</v>
       </c>
     </row>
     <row r="44">
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>53.40527886852311</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>895361.5962992512</v>
+        <v>895361.596299251</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>895361.5962992512</v>
+        <v>895361.596299251</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673673</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673675</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673673</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673673</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>832814.7603673675</v>
+        <v>832814.7603673674</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673673</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>832814.7603673675</v>
+        <v>832814.7603673674</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673675</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673675</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516059</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="F2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="F2" t="n">
-        <v>585181.2847752542</v>
-      </c>
       <c r="G2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="H2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="I2" t="n">
+        <v>585181.2847752548</v>
+      </c>
+      <c r="J2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="K2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="L2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="M2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="N2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="H2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="P2" t="n">
         <v>585181.2847752547</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752548</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752547</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752548</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585181.2847752543</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.9331222398</v>
+        <v>789845.9331222414</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.74144847562</v>
+        <v>2553.741448474159</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.2722329922</v>
+        <v>775624.2722329923</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128024.1174663867</v>
+        <v>128024.1174663868</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408961</v>
+        <v>184436.3405408958</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408961</v>
+        <v>184436.3405408958</v>
       </c>
       <c r="D4" t="n">
         <v>183932.5854660025</v>
@@ -26429,16 +26429,16 @@
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="G4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="H4" t="n">
-        <v>6287.480531695051</v>
-      </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695051</v>
@@ -26447,10 +26447,10 @@
         <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="M4" t="n">
         <v>6287.480531695052</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695051</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538439</v>
+        <v>86566.12012538442</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538439</v>
+        <v>86566.12012538442</v>
       </c>
       <c r="D5" t="n">
-        <v>86631.12555917782</v>
+        <v>86631.1255591778</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-465593.1106369146</v>
+        <v>-465593.1106369168</v>
       </c>
       <c r="C6" t="n">
-        <v>324252.8224853254</v>
+        <v>324252.822485325</v>
       </c>
       <c r="D6" t="n">
-        <v>322137.8306779497</v>
+        <v>322137.8306779511</v>
       </c>
       <c r="E6" t="n">
-        <v>-297852.99781334</v>
+        <v>-298200.3770676969</v>
       </c>
       <c r="F6" t="n">
-        <v>477771.274419652</v>
+        <v>477423.8951652953</v>
       </c>
       <c r="G6" t="n">
-        <v>477771.2744196521</v>
+        <v>477423.8951652955</v>
       </c>
       <c r="H6" t="n">
-        <v>477771.2744196524</v>
+        <v>477423.8951652949</v>
       </c>
       <c r="I6" t="n">
-        <v>477771.2744196525</v>
+        <v>477423.895165296</v>
       </c>
       <c r="J6" t="n">
-        <v>305354.1330375122</v>
+        <v>305006.7537831549</v>
       </c>
       <c r="K6" t="n">
-        <v>477771.2744196525</v>
+        <v>477423.8951652954</v>
       </c>
       <c r="L6" t="n">
-        <v>477771.274419652</v>
+        <v>477423.8951652955</v>
       </c>
       <c r="M6" t="n">
-        <v>349747.1569532654</v>
+        <v>349399.7776989085</v>
       </c>
       <c r="N6" t="n">
-        <v>477771.2744196526</v>
+        <v>477423.8951652955</v>
       </c>
       <c r="O6" t="n">
-        <v>477771.2744196522</v>
+        <v>477423.8951652952</v>
       </c>
       <c r="P6" t="n">
-        <v>477771.2744196521</v>
+        <v>477423.8951652955</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053388</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053388</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053388</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632726251</v>
+        <v>2.981900632724546</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685957</v>
+        <v>513.7321931685959</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685957</v>
+        <v>513.7321931685959</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685957</v>
+        <v>513.7321931685959</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>237.9163447757567</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1557452255192</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>30.6253598413079</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>50.60159733637107</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9261537524327</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.75990484659</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4282648842212</v>
+        <v>123.4282648842211</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>18.07600977063289</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>39.65897867295288</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>199.2004262179096</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1557452255192</v>
       </c>
       <c r="V5" t="n">
-        <v>299.449238911849</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>157.8327670459396</v>
       </c>
       <c r="H7" t="n">
         <v>152.75990484659</v>
       </c>
       <c r="I7" t="n">
-        <v>123.4282648842212</v>
+        <v>123.4282648842211</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063312</v>
+        <v>18.07600977063289</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371268</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>194.5845740775167</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>69.53483199510828</v>
       </c>
       <c r="X8" t="n">
-        <v>119.6691483714766</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>5.08038975228763</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>66.28997307420529</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28070,7 +28070,7 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966184</v>
+        <v>2.373846028966191</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064414994</v>
+        <v>24.31115064415001</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171892</v>
+        <v>91.51769903171918</v>
       </c>
       <c r="J2" t="n">
-        <v>201.4772144009689</v>
+        <v>201.4772144009694</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071075</v>
+        <v>301.9621168071084</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160814</v>
+        <v>374.6107072160826</v>
       </c>
       <c r="M2" t="n">
-        <v>416.8265915337088</v>
+        <v>416.82659153371</v>
       </c>
       <c r="N2" t="n">
-        <v>423.571281563509</v>
+        <v>423.5712815635102</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129765</v>
+        <v>399.9663501129777</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728738</v>
+        <v>341.3620262728747</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605222</v>
+        <v>256.3486653605229</v>
       </c>
       <c r="R2" t="n">
-        <v>149.1161056170472</v>
+        <v>149.1161056170477</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506698</v>
+        <v>54.09401638506714</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179948</v>
+        <v>10.39151099179951</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172947</v>
+        <v>0.1899076823172953</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.2701195993662</v>
+        <v>1.270119599366204</v>
       </c>
       <c r="H3" t="n">
-        <v>12.26668139387883</v>
+        <v>12.26668139387887</v>
       </c>
       <c r="I3" t="n">
-        <v>43.7299949781784</v>
+        <v>43.72999497817852</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401199</v>
+        <v>119.9984486401202</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976553</v>
+        <v>205.0964617976559</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623849</v>
+        <v>275.7775033623857</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394096</v>
+        <v>321.8193388394105</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351593</v>
+        <v>330.3369391351603</v>
       </c>
       <c r="O3" t="n">
-        <v>302.193762749203</v>
+        <v>302.1937627492038</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789721</v>
+        <v>242.5371364789728</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.1296527190961</v>
+        <v>162.1296527190965</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064887</v>
+        <v>78.85882916064909</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822744</v>
+        <v>23.59191448822751</v>
       </c>
       <c r="T3" t="n">
-        <v>5.119473297445341</v>
+        <v>5.119473297445357</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0835604999583027</v>
+        <v>0.08356049995830293</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026021</v>
+        <v>1.064825606026024</v>
       </c>
       <c r="H4" t="n">
-        <v>9.467267660849537</v>
+        <v>9.467267660849563</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303707</v>
+        <v>32.02221004303716</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034603965</v>
+        <v>75.28317034603988</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546595</v>
+        <v>123.7133749546598</v>
       </c>
       <c r="L4" t="n">
-        <v>158.3105269177231</v>
+        <v>158.3105269177236</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609698</v>
+        <v>166.9162538609702</v>
       </c>
       <c r="N4" t="n">
-        <v>162.9473584203274</v>
+        <v>162.9473584203279</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953871</v>
+        <v>150.5082592953875</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324561</v>
+        <v>128.7858169324565</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550616</v>
+        <v>89.16462415550642</v>
       </c>
       <c r="R4" t="n">
-        <v>47.8784313400427</v>
+        <v>47.87843134004284</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319892</v>
+        <v>18.55700624319897</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565723</v>
+        <v>4.549709407565737</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232847</v>
+        <v>0.05808139669232864</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966184</v>
+        <v>2.373846028966191</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064414994</v>
+        <v>24.31115064415001</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171892</v>
+        <v>91.51769903171918</v>
       </c>
       <c r="J5" t="n">
-        <v>201.4772144009689</v>
+        <v>201.4772144009694</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071075</v>
+        <v>301.9621168071084</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160814</v>
+        <v>374.6107072160826</v>
       </c>
       <c r="M5" t="n">
-        <v>416.8265915337088</v>
+        <v>416.82659153371</v>
       </c>
       <c r="N5" t="n">
-        <v>423.571281563509</v>
+        <v>423.5712815635102</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129765</v>
+        <v>399.9663501129777</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728738</v>
+        <v>341.3620262728747</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605222</v>
+        <v>256.3486653605229</v>
       </c>
       <c r="R5" t="n">
-        <v>149.1161056170472</v>
+        <v>149.1161056170477</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506698</v>
+        <v>54.09401638506714</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179948</v>
+        <v>10.39151099179951</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172947</v>
+        <v>0.1899076823172953</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.2701195993662</v>
+        <v>1.270119599366204</v>
       </c>
       <c r="H6" t="n">
-        <v>12.26668139387883</v>
+        <v>12.26668139387887</v>
       </c>
       <c r="I6" t="n">
-        <v>43.7299949781784</v>
+        <v>43.72999497817852</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401199</v>
+        <v>119.9984486401202</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976553</v>
+        <v>205.0964617976559</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623849</v>
+        <v>275.7775033623857</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394096</v>
+        <v>321.8193388394105</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351593</v>
+        <v>330.3369391351603</v>
       </c>
       <c r="O6" t="n">
-        <v>302.193762749203</v>
+        <v>302.1937627492038</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789721</v>
+        <v>242.5371364789728</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.1296527190961</v>
+        <v>162.1296527190965</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064887</v>
+        <v>78.85882916064909</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822744</v>
+        <v>23.59191448822751</v>
       </c>
       <c r="T6" t="n">
-        <v>5.119473297445341</v>
+        <v>5.119473297445357</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0835604999583027</v>
+        <v>0.08356049995830293</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026021</v>
+        <v>1.064825606026024</v>
       </c>
       <c r="H7" t="n">
-        <v>9.467267660849537</v>
+        <v>9.467267660849563</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303707</v>
+        <v>32.02221004303716</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034603965</v>
+        <v>75.28317034603988</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546595</v>
+        <v>123.7133749546598</v>
       </c>
       <c r="L7" t="n">
-        <v>158.3105269177231</v>
+        <v>158.3105269177236</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609698</v>
+        <v>166.9162538609702</v>
       </c>
       <c r="N7" t="n">
-        <v>162.9473584203274</v>
+        <v>162.9473584203279</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953871</v>
+        <v>150.5082592953875</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324561</v>
+        <v>128.7858169324565</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550616</v>
+        <v>89.16462415550642</v>
       </c>
       <c r="R7" t="n">
-        <v>47.8784313400427</v>
+        <v>47.87843134004284</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319892</v>
+        <v>18.55700624319897</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565723</v>
+        <v>4.549709407565737</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232847</v>
+        <v>0.05808139669232864</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -31852,16 +31852,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>639.8517673857158</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,19 +32074,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>171.5999003578897</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32095,13 +32095,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32326,7 +32326,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904295</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,7 +33037,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>230.1272937575231</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33046,7 +33046,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,19 +33259,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>324.5433647340733</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33280,7 +33280,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>268.1779244693588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,13 +33742,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N36" t="n">
-        <v>693.4464364470641</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33757,10 +33757,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,25 +33979,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>272.7569329364655</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>270.3182595810212</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,19 +34453,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>472.97362791687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987428259</v>
+        <v>20.43130987428316</v>
       </c>
       <c r="K2" t="n">
-        <v>406.0176783332917</v>
+        <v>81.87226576212782</v>
       </c>
       <c r="L2" t="n">
-        <v>220.4907346158623</v>
+        <v>556.5055067965458</v>
       </c>
       <c r="M2" t="n">
-        <v>635.9938917992686</v>
+        <v>635.9938917992698</v>
       </c>
       <c r="N2" t="n">
-        <v>631.5051423789023</v>
+        <v>631.5051423789034</v>
       </c>
       <c r="O2" t="n">
-        <v>550.6683199540352</v>
+        <v>538.79896034451</v>
       </c>
       <c r="P2" t="n">
-        <v>110.1290305176042</v>
+        <v>110.1290305176052</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.04297548607272</v>
+        <v>34.04297548607346</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>119.2518573138624</v>
       </c>
       <c r="K3" t="n">
-        <v>67.25502282329629</v>
+        <v>331.7202598358755</v>
       </c>
       <c r="L3" t="n">
-        <v>235.0243826184381</v>
+        <v>508.0634688859707</v>
       </c>
       <c r="M3" t="n">
-        <v>645.3903686673912</v>
+        <v>238.5377682167912</v>
       </c>
       <c r="N3" t="n">
-        <v>658.9760949310527</v>
+        <v>198.995227051827</v>
       </c>
       <c r="O3" t="n">
-        <v>553.459837581488</v>
+        <v>553.459837581489</v>
       </c>
       <c r="P3" t="n">
-        <v>427.025497704579</v>
+        <v>427.0254977045797</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.14787863307455</v>
+        <v>232.2251663689241</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.4438831287766</v>
+        <v>101.443883128777</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780393</v>
+        <v>185.9005521780397</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228103</v>
+        <v>206.5001308228108</v>
       </c>
       <c r="N4" t="n">
-        <v>207.079530799556</v>
+        <v>207.0795307995565</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094267</v>
+        <v>175.0933872094272</v>
       </c>
       <c r="P4" t="n">
-        <v>126.0643761973496</v>
+        <v>126.06437619735</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903811776</v>
+        <v>3.002580903812031</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>20.43130987428259</v>
+        <v>20.43130987428316</v>
       </c>
       <c r="K5" t="n">
-        <v>406.0176783332917</v>
+        <v>81.87226576212782</v>
       </c>
       <c r="L5" t="n">
-        <v>138.8442922460942</v>
+        <v>556.5055067965458</v>
       </c>
       <c r="M5" t="n">
-        <v>635.9938917992686</v>
+        <v>635.9938917992698</v>
       </c>
       <c r="N5" t="n">
-        <v>559.8380671800284</v>
+        <v>631.5051423789034</v>
       </c>
       <c r="O5" t="n">
-        <v>169.8681386912898</v>
+        <v>538.79896034451</v>
       </c>
       <c r="P5" t="n">
-        <v>431.9277386890869</v>
+        <v>110.1290305176052</v>
       </c>
       <c r="Q5" t="n">
-        <v>246.3579661459774</v>
+        <v>34.04297548607346</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>331.7202598358749</v>
+        <v>331.7202598358755</v>
       </c>
       <c r="L6" t="n">
-        <v>508.0634688859699</v>
+        <v>508.0634688859707</v>
       </c>
       <c r="M6" t="n">
-        <v>567.8669132665074</v>
+        <v>357.7896255306534</v>
       </c>
       <c r="N6" t="n">
-        <v>198.995227051826</v>
+        <v>198.995227051827</v>
       </c>
       <c r="O6" t="n">
-        <v>553.459837581488</v>
+        <v>553.459837581489</v>
       </c>
       <c r="P6" t="n">
-        <v>427.025497704579</v>
+        <v>427.0254977045797</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.14787863307455</v>
+        <v>232.2251663689241</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.4438831287766</v>
+        <v>101.443883128777</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780393</v>
+        <v>185.9005521780397</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228103</v>
+        <v>206.5001308228108</v>
       </c>
       <c r="N7" t="n">
-        <v>207.079530799556</v>
+        <v>207.0795307995565</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094267</v>
+        <v>175.0933872094272</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0643761973496</v>
+        <v>126.06437619735</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903811776</v>
+        <v>3.002580903812031</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>185.5265978554775</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
@@ -35184,16 +35184,16 @@
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>267.5709399902791</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>261.801502872481</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N9" t="n">
-        <v>658.9760949310527</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35409,7 +35409,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35491,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>508.5100553023825</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>29.46586643587134</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35743,13 +35743,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35974,7 +35974,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684112</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36372,13 +36372,13 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,7 +36685,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>98.78558167418976</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36849,7 +36849,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36907,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>182.409330812055</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36928,7 +36928,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37080,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>130.3364854949998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N36" t="n">
-        <v>562.1047243637308</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37405,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37563,10 +37563,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>134.2025531565913</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3364854949997</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,19 +38101,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>330.3773834724256</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
